--- a/spliced/struggle/2023-03-25_18-16-05/data_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-16-05/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-9.702054977416992</v>
+        <v>-4.876684755086883</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.42457103729248</v>
+        <v>-2.076402157545074</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6105778217315674</v>
+        <v>-9.344285488128664</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0978911519050598</v>
+        <v>3.110678434371948</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0056505035609006</v>
+        <v>1.813658952713013</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0447458773851394</v>
+        <v>-1.52746856212616</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-8.849106550216675</v>
+        <v>1.809403181076058</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.858214139938354</v>
+        <v>13.51332342624669</v>
       </c>
       <c r="E3" t="n">
-        <v>0.880838930606842</v>
+        <v>-4.600637912750224</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0774271711707115</v>
+        <v>-0.8225300312042236</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0310014113783836</v>
+        <v>4.032474040985107</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1647808998823166</v>
+        <v>-1.342376351356506</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.048381686210634</v>
+        <v>1.417896926403043</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.857648134231568</v>
+        <v>18.05351507663726</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.309569776058197</v>
+        <v>-2.601601481437687</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1050688251852989</v>
+        <v>-0.784503698348999</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.385900497436523</v>
+        <v>-1.800067186355591</v>
       </c>
       <c r="H4" t="n">
-        <v>2.499965906143188</v>
+        <v>-0.266642689704895</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-5.53068429231644</v>
+        <v>-2.472576022148132</v>
       </c>
       <c r="D5" t="n">
-        <v>-9.25731372833252</v>
+        <v>6.250693678855895</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.43639099597931</v>
+        <v>-9.09222507476807</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4610505402088165</v>
+        <v>-0.7644978761672974</v>
       </c>
       <c r="G5" t="n">
-        <v>2.125047445297241</v>
+        <v>-0.5174028873443604</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6215553879737854</v>
+        <v>0.9405797719955444</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-9.41212439537048</v>
+        <v>-2.629937916994093</v>
       </c>
       <c r="D6" t="n">
-        <v>-10.72038459777832</v>
+        <v>4.76309457421303</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.504557847976685</v>
+        <v>-12.27247226238251</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4665483236312866</v>
+        <v>0.00137444678694</v>
       </c>
       <c r="G6" t="n">
-        <v>2.866027116775513</v>
+        <v>-0.2606867551803589</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2889392673969269</v>
+        <v>3.316082000732422</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-6.460869312286377</v>
+        <v>-7.906721115112305</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.427237629890437</v>
+        <v>-1.656690835952763</v>
       </c>
       <c r="E7" t="n">
-        <v>1.441004037857059</v>
+        <v>-8.986274719238274</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3239113092422485</v>
+        <v>1.413389444351196</v>
       </c>
       <c r="G7" t="n">
-        <v>2.975219249725342</v>
+        <v>1.9312504529953</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.32053792476654</v>
+        <v>2.964529037475586</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-6.302718639373779</v>
+        <v>-7.878847062587737</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.253605723381049</v>
+        <v>-3.47562119364739</v>
       </c>
       <c r="E8" t="n">
-        <v>10.39484345912933</v>
+        <v>-5.723703801631919</v>
       </c>
       <c r="F8" t="n">
-        <v>1.261742115020752</v>
+        <v>0.1264491081237793</v>
       </c>
       <c r="G8" t="n">
-        <v>7.791738986968994</v>
+        <v>3.219565391540528</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.358703374862671</v>
+        <v>-0.1656972020864486</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.388760656118388</v>
+        <v>-3.529585599899285</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.768014729022983</v>
+        <v>-1.653401762247083</v>
       </c>
       <c r="E9" t="n">
-        <v>6.439942181110383</v>
+        <v>-10.57092201709748</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5487096905708313</v>
+        <v>1.272585034370422</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5149593949317932</v>
+        <v>0.1452332139015197</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5012149214744568</v>
+        <v>1.545947194099426</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.242257833480832</v>
+        <v>-8.618583738803876</v>
       </c>
       <c r="D10" t="n">
-        <v>-10.37810611724854</v>
+        <v>-1.921446576714518</v>
       </c>
       <c r="E10" t="n">
-        <v>7.145387649536128</v>
+        <v>-7.590942263603199</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2260201424360275</v>
+        <v>5.68990421295166</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3822489380836487</v>
+        <v>0.4735732674598694</v>
       </c>
       <c r="H10" t="n">
-        <v>1.30664074420929</v>
+        <v>2.645351886749268</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.09027406573295726</v>
+        <v>-6.864823818206775</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.224010169506073</v>
+        <v>-3.412744522094729</v>
       </c>
       <c r="E11" t="n">
-        <v>3.237534523010252</v>
+        <v>-9.644531726837165</v>
       </c>
       <c r="F11" t="n">
-        <v>2.796082973480225</v>
+        <v>1.004720568656921</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.143984317779541</v>
+        <v>-1.029460668563843</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.05878221988678</v>
+        <v>0.8364272117614746</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-9.543408751487744</v>
+        <v>-0.3932898044586127</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.638795256614687</v>
+        <v>-2.516493201255787</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.813618898391731</v>
+        <v>-11.63133525848387</v>
       </c>
       <c r="F12" t="n">
-        <v>3.969096899032593</v>
+        <v>-0.5496259927749634</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.04664945602417</v>
+        <v>1.477530360221863</v>
       </c>
       <c r="H12" t="n">
-        <v>-4.536743640899658</v>
+        <v>-3.358078956604004</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-4.876684755086883</v>
+        <v>-0.3210607767105248</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.076402157545074</v>
+        <v>2.201687335968037</v>
       </c>
       <c r="E13" t="n">
-        <v>-9.344285488128664</v>
+        <v>-5.495597958564743</v>
       </c>
       <c r="F13" t="n">
-        <v>3.110678434371948</v>
+        <v>1.193783402442932</v>
       </c>
       <c r="G13" t="n">
-        <v>1.813658952713013</v>
+        <v>5.348583221435547</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.52746856212616</v>
+        <v>-3.039818286895752</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.809403181076058</v>
+        <v>-3.88015073537826</v>
       </c>
       <c r="D14" t="n">
-        <v>13.51332342624669</v>
+        <v>7.319447636604309</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.600637912750224</v>
+        <v>-2.401085853576681</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8225300312042236</v>
+        <v>0.0236710291355848</v>
       </c>
       <c r="G14" t="n">
-        <v>4.032474040985107</v>
+        <v>-0.4915938079357147</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.342376351356506</v>
+        <v>-0.5149593949317932</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.417896926403043</v>
+        <v>-2.474413871765147</v>
       </c>
       <c r="D15" t="n">
-        <v>18.05351507663726</v>
+        <v>7.422795295715336</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.601601481437687</v>
+        <v>-7.479803562164315</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.784503698348999</v>
+        <v>-0.52702397108078</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.800067186355591</v>
+        <v>3.396258115768433</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.266642689704895</v>
+        <v>-1.487456917762756</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-2.472576022148132</v>
+        <v>-4.692895889282228</v>
       </c>
       <c r="D16" t="n">
-        <v>6.250693678855895</v>
+        <v>8.487199664115906</v>
       </c>
       <c r="E16" t="n">
-        <v>-9.09222507476807</v>
+        <v>-9.337096989154816</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7644978761672974</v>
+        <v>-0.113315500319004</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.5174028873443604</v>
+        <v>3.309820652008057</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9405797719955444</v>
+        <v>-0.5609270334243774</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-2.629937916994093</v>
+        <v>-3.639542102813719</v>
       </c>
       <c r="D17" t="n">
-        <v>4.76309457421303</v>
+        <v>8.090452075004578</v>
       </c>
       <c r="E17" t="n">
-        <v>-12.27247226238251</v>
+        <v>-3.927529096603386</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00137444678694</v>
+        <v>2.999042987823486</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2606867551803589</v>
+        <v>0.8868235945701599</v>
       </c>
       <c r="H17" t="n">
-        <v>3.316082000732422</v>
+        <v>-1.359175205230713</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-7.906721115112305</v>
+        <v>-5.387722790241247</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.656690835952763</v>
+        <v>3.111244738101949</v>
       </c>
       <c r="E18" t="n">
-        <v>-8.986274719238274</v>
+        <v>8.269636750221276</v>
       </c>
       <c r="F18" t="n">
-        <v>1.413389444351196</v>
+        <v>8.29066276550293</v>
       </c>
       <c r="G18" t="n">
-        <v>1.9312504529953</v>
+        <v>-1.915215253829956</v>
       </c>
       <c r="H18" t="n">
-        <v>2.964529037475586</v>
+        <v>0.5499314665794373</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-7.878847062587737</v>
+        <v>-1.612288236618022</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.47562119364739</v>
+        <v>0.4680981636047372</v>
       </c>
       <c r="E19" t="n">
-        <v>-5.723703801631919</v>
+        <v>12.90354442596435</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1264491081237793</v>
+        <v>2.119396924972534</v>
       </c>
       <c r="G19" t="n">
-        <v>3.219565391540528</v>
+        <v>0.5285511612892151</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1656972020864486</v>
+        <v>0.0710130855441093</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-3.529585599899285</v>
+        <v>0.8442984223365615</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.653401762247083</v>
+        <v>-0.4397069215774612</v>
       </c>
       <c r="E20" t="n">
-        <v>-10.57092201709748</v>
+        <v>9.103015005588517</v>
       </c>
       <c r="F20" t="n">
-        <v>1.272585034370422</v>
+        <v>3.94298243522644</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1452332139015197</v>
+        <v>-0.3740022480487823</v>
       </c>
       <c r="H20" t="n">
-        <v>1.545947194099426</v>
+        <v>-1.55419385433197</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-8.618583738803876</v>
+        <v>-3.634706258773804</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.921446576714518</v>
+        <v>-4.129897594451904</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.590942263603199</v>
+        <v>6.328503251075745</v>
       </c>
       <c r="F21" t="n">
-        <v>5.68990421295166</v>
+        <v>3.11648178100586</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4735732674598694</v>
+        <v>-1.741576790809631</v>
       </c>
       <c r="H21" t="n">
-        <v>2.645351886749268</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>struggle</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-6.864823818206775</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-3.412744522094729</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-9.644531726837165</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.004720568656921</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-1.029460668563843</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.8364272117614746</v>
+        <v>3.701537847518921</v>
       </c>
     </row>
   </sheetData>
